--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_5_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_5_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1375987.223066352</v>
+        <v>-1378366.894268378</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836236</v>
+        <v>6654055.582836237</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>309.0018660074007</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -716,7 +716,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>253.9620394059549</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -859,22 +859,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>195.8686293235219</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>67.25025504144566</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>263.8946150441238</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>60.48389944297984</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>110.3135593404357</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>101.780687729549</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1139,13 +1139,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>197.0830042719512</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>121.3835765299874</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>146.4538219748017</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>54.6650959581362</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1388,7 +1388,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.885306725550132e-12</v>
+        <v>109.8573000244218</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>219.5489492761679</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1588,10 +1588,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>112.2898785673269</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417126</v>
       </c>
       <c r="G14" t="n">
         <v>410.9217256534534</v>
@@ -1625,7 +1625,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>47.36500934461827</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>13.21455103355534</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1822,16 +1822,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1941,7 +1941,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,13 +2008,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>94.31414135199506</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>203.6597537114136</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2178,7 +2178,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>44.17058434933715</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>112.9454894324105</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2476,16 +2476,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>13.8907283799716</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>238.9171930685448</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2573,7 +2573,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,22 +2710,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>74.75769145492316</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>107.6110020275124</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2965,10 +2965,10 @@
         <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572899</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124633</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3193,7 +3193,7 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797738</v>
       </c>
       <c r="F34" t="n">
         <v>98.44591140433869</v>
@@ -3238,7 +3238,7 @@
         <v>142.7938887128493</v>
       </c>
       <c r="T34" t="n">
-        <v>172.5738126575772</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U34" t="n">
         <v>239.2367015870203</v>
@@ -3281,7 +3281,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -3329,7 +3329,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145478</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S37" t="n">
         <v>142.7938887128493</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3521,7 +3521,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,7 +3554,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3661,25 +3661,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D40" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3800,7 +3800,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1363.553390680693</v>
+        <v>902.4179758042681</v>
       </c>
       <c r="C2" t="n">
-        <v>1363.553390680693</v>
+        <v>533.4554588638564</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>533.4554588638564</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>533.4554588638564</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4331,10 +4331,10 @@
         <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4364,16 +4364,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.54646147304</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1620.08070321196</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y2" t="n">
-        <v>1363.553390680693</v>
+        <v>1289.01781586839</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424004</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.8791647482714</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406182</v>
+        <v>500.8649647332663</v>
       </c>
       <c r="U4" t="n">
-        <v>290.8087152951862</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="V4" t="n">
-        <v>222.8791647482714</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="W4" t="n">
-        <v>222.8791647482714</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="X4" t="n">
-        <v>222.8791647482714</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.8791647482714</v>
+        <v>211.6913543878343</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>898.8784838925781</v>
+        <v>1253.251950079336</v>
       </c>
       <c r="C5" t="n">
-        <v>898.8784838925781</v>
+        <v>884.2894331389243</v>
       </c>
       <c r="D5" t="n">
-        <v>632.3182666762914</v>
+        <v>526.0237345321739</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762914</v>
+        <v>526.0237345321739</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>115.0378297425663</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>1662.48357412947</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X5" t="n">
-        <v>1289.01781586839</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y5" t="n">
-        <v>898.8784838925781</v>
+        <v>1639.851790143458</v>
       </c>
     </row>
     <row r="6">
@@ -4650,10 +4650,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.8791647482714</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>315.487458950312</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>165.3708195379762</v>
       </c>
       <c r="E7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="V7" t="n">
-        <v>625.3202087220412</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="W7" t="n">
-        <v>625.3202087220412</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="X7" t="n">
-        <v>625.3202087220412</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="Y7" t="n">
-        <v>404.5276295785111</v>
+        <v>484.4236418782189</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>586.5435612426379</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="C8" t="n">
-        <v>586.5435612426379</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D8" t="n">
-        <v>228.2778626358874</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E8" t="n">
-        <v>228.2778626358874</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
         <v>207.4089578252748</v>
@@ -4802,19 +4802,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2498.075349329383</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.72394915887</v>
+        <v>2498.075349329383</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.661061815299</v>
+        <v>2167.012461985812</v>
       </c>
       <c r="W8" t="n">
-        <v>1485.892406545185</v>
+        <v>2167.012461985812</v>
       </c>
       <c r="X8" t="n">
-        <v>1363.282733282571</v>
+        <v>2167.012461985812</v>
       </c>
       <c r="Y8" t="n">
-        <v>973.1434013067596</v>
+        <v>2167.012461985812</v>
       </c>
     </row>
     <row r="9">
@@ -4872,7 +4872,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4881,22 +4881,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4905,7 +4905,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>204.0596212327002</v>
+        <v>109.1602504649465</v>
       </c>
       <c r="C10" t="n">
-        <v>204.0596212327002</v>
+        <v>109.1602504649465</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>109.1602504649465</v>
       </c>
       <c r="E10" t="n">
         <v>53.94298182036445</v>
@@ -4993,19 +4993,19 @@
         <v>579.9823256406182</v>
       </c>
       <c r="U10" t="n">
-        <v>579.9823256406182</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="V10" t="n">
-        <v>579.9823256406182</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="W10" t="n">
-        <v>579.9823256406182</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="X10" t="n">
-        <v>351.9927747426009</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="Y10" t="n">
-        <v>351.9927747426009</v>
+        <v>290.8087152951862</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
@@ -5039,25 +5039,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563072</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L11" t="n">
-        <v>1971.087962216427</v>
+        <v>1453.840519464784</v>
       </c>
       <c r="M11" t="n">
-        <v>2949.638265046255</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N11" t="n">
-        <v>3496.417082105037</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O11" t="n">
-        <v>3999.389552984374</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4394.163919341552</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
         <v>4653.975400188666</v>
@@ -5078,7 +5078,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
         <v>3150.95552873011</v>
@@ -5109,22 +5109,22 @@
         <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320239</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5133,7 +5133,7 @@
         <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
         <v>2436.460902902952</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>414.6138567886352</v>
+        <v>499.6351384500852</v>
       </c>
       <c r="C13" t="n">
-        <v>245.6776738607282</v>
+        <v>499.6351384500852</v>
       </c>
       <c r="D13" t="n">
-        <v>95.56103444839252</v>
+        <v>499.6351384500852</v>
       </c>
       <c r="E13" t="n">
-        <v>95.56103444839442</v>
+        <v>388.668168728447</v>
       </c>
       <c r="F13" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H13" t="n">
         <v>95.56103444839442</v>
@@ -5200,7 +5200,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5212,37 +5212,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258585</v>
       </c>
       <c r="U13" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384229</v>
       </c>
       <c r="V13" t="n">
-        <v>999.1036114208122</v>
+        <v>909.2731541783422</v>
       </c>
       <c r="W13" t="n">
-        <v>709.6864413838516</v>
+        <v>909.2731541783422</v>
       </c>
       <c r="X13" t="n">
-        <v>596.2623216188749</v>
+        <v>681.2836032803249</v>
       </c>
       <c r="Y13" t="n">
-        <v>596.2623216188749</v>
+        <v>681.2836032803249</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5276,52 +5276,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.44016540742</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972665</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L14" t="n">
-        <v>1069.293752345675</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M14" t="n">
-        <v>2047.844055175504</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N14" t="n">
-        <v>3027.596327402151</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O14" t="n">
-        <v>3757.39320666029</v>
+        <v>3819.938960973982</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107236</v>
+        <v>4214.71332733116</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H15" t="n">
         <v>114.5683260468568</v>
@@ -5355,19 +5355,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320238</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
         <v>2125.96131142685</v>
@@ -5376,7 +5376,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
         <v>2593.958107142068</v>
@@ -5385,7 +5385,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
         <v>2043.809373447819</v>
@@ -5394,13 +5394,13 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>425.75834230572</v>
+        <v>438.2075193111406</v>
       </c>
       <c r="C16" t="n">
-        <v>256.8221593778131</v>
+        <v>438.2075193111406</v>
       </c>
       <c r="D16" t="n">
-        <v>256.8221593778131</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E16" t="n">
-        <v>108.90906579542</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F16" t="n">
-        <v>108.90906579542</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>108.90906579542</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>108.90906579542</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5437,16 +5437,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N16" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
         <v>1646.12566951853</v>
@@ -5461,25 +5461,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689059</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258585</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
         <v>1163.957642384228</v>
       </c>
       <c r="V16" t="n">
-        <v>1163.957642384228</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W16" t="n">
-        <v>874.5404723472675</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X16" t="n">
-        <v>646.5509214492502</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="Y16" t="n">
-        <v>425.75834230572</v>
+        <v>619.8559841413803</v>
       </c>
     </row>
     <row r="17">
@@ -5513,25 +5513,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M17" t="n">
-        <v>2536.15366264131</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N17" t="n">
-        <v>3082.932479700092</v>
+        <v>3362.809616117416</v>
       </c>
       <c r="O17" t="n">
-        <v>3585.904950579429</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P17" t="n">
-        <v>4299.260038026375</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q17" t="n">
         <v>4719.034655862919</v>
@@ -5568,22 +5568,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468565</v>
@@ -5592,13 +5592,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5634,10 +5634,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>674.3568109459524</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C19" t="n">
-        <v>505.4206280180455</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>505.4206280180455</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
         <v>95.56103444839442</v>
@@ -5695,28 +5695,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T19" t="n">
-        <v>1956.343466104704</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U19" t="n">
-        <v>1667.240599230347</v>
+        <v>1439.029470490936</v>
       </c>
       <c r="V19" t="n">
-        <v>1412.556111024461</v>
+        <v>1184.344982285049</v>
       </c>
       <c r="W19" t="n">
-        <v>1123.1389409875</v>
+        <v>894.9278122480886</v>
       </c>
       <c r="X19" t="n">
-        <v>895.1493900894825</v>
+        <v>666.9382613500712</v>
       </c>
       <c r="Y19" t="n">
-        <v>674.3568109459524</v>
+        <v>446.1456822065411</v>
       </c>
     </row>
     <row r="20">
@@ -5750,28 +5750,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1971.087962216427</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>2949.638265046256</v>
+        <v>2016.310259422546</v>
       </c>
       <c r="N20" t="n">
-        <v>3573.001456870721</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R20" t="n">
         <v>4778.05172241972</v>
@@ -5805,37 +5805,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193584</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5871,10 +5871,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>674.3568109459524</v>
+        <v>438.2075193111406</v>
       </c>
       <c r="C22" t="n">
-        <v>674.3568109459524</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="D22" t="n">
-        <v>524.2401715336166</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E22" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
         <v>95.56103444839442</v>
@@ -5932,28 +5932,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1667.240599230347</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V22" t="n">
-        <v>1412.556111024461</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W22" t="n">
-        <v>1123.1389409875</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X22" t="n">
-        <v>895.1493900894825</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="Y22" t="n">
-        <v>674.3568109459524</v>
+        <v>619.8559841413803</v>
       </c>
     </row>
     <row r="23">
@@ -5966,22 +5966,22 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
@@ -5993,19 +5993,19 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1231.058905050226</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M23" t="n">
-        <v>2209.609207880054</v>
+        <v>1941.005908766398</v>
       </c>
       <c r="N23" t="n">
-        <v>3189.361480106701</v>
+        <v>2920.758180993045</v>
       </c>
       <c r="O23" t="n">
-        <v>3692.333950986038</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P23" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
         <v>4653.975400188666</v>
@@ -6014,25 +6014,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="24">
@@ -6066,13 +6066,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>540.4807149410336</v>
+        <v>278.5282561439494</v>
       </c>
       <c r="C25" t="n">
-        <v>540.4807149410336</v>
+        <v>109.5920732160425</v>
       </c>
       <c r="D25" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
         <v>95.56103444839442</v>
@@ -6169,28 +6169,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1715.012968055669</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V25" t="n">
-        <v>1460.328479849782</v>
+        <v>1198.376021052697</v>
       </c>
       <c r="W25" t="n">
-        <v>1170.911309812821</v>
+        <v>908.9588510157366</v>
       </c>
       <c r="X25" t="n">
-        <v>942.9217589148035</v>
+        <v>680.9693001177193</v>
       </c>
       <c r="Y25" t="n">
-        <v>722.1291797712734</v>
+        <v>460.1767209741892</v>
       </c>
     </row>
     <row r="26">
@@ -6212,10 +6212,10 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551621</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6224,28 +6224,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>360.1279170711155</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>1014.851249206415</v>
       </c>
       <c r="L26" t="n">
-        <v>1352.099436442224</v>
+        <v>1465.885462454823</v>
       </c>
       <c r="M26" t="n">
-        <v>2330.649739272053</v>
+        <v>1999.417367126748</v>
       </c>
       <c r="N26" t="n">
-        <v>2877.428556330835</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O26" t="n">
-        <v>3757.39320666029</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R26" t="n">
         <v>4778.05172241972</v>
@@ -6279,37 +6279,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6321,16 +6321,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>818.1148797149126</v>
+        <v>171.0738540998319</v>
       </c>
       <c r="C28" t="n">
-        <v>649.1786967870057</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D28" t="n">
-        <v>499.06205737467</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E28" t="n">
-        <v>351.1489637922768</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F28" t="n">
-        <v>204.2590162943665</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G28" t="n">
         <v>95.56103444839441</v>
@@ -6382,10 +6382,10 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6397,37 +6397,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T28" t="n">
-        <v>1764.65758193153</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U28" t="n">
-        <v>1764.65758193153</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V28" t="n">
-        <v>1509.973093725643</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W28" t="n">
-        <v>1220.555923688682</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X28" t="n">
-        <v>1220.555923688682</v>
+        <v>391.8664332433621</v>
       </c>
       <c r="Y28" t="n">
-        <v>999.7633445451523</v>
+        <v>171.0738540998319</v>
       </c>
     </row>
     <row r="29">
@@ -6440,73 +6440,73 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>785.6651881176194</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L29" t="n">
-        <v>1650.184003770974</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M29" t="n">
-        <v>2628.734306600803</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N29" t="n">
-        <v>3254.420735780954</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O29" t="n">
-        <v>3757.393206660291</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6540,13 +6540,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320245</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6613,7 +6613,7 @@
         <v>244.2046325160455</v>
       </c>
       <c r="H31" t="n">
-        <v>145.4370786819766</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690174</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749762</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143012</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544768</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551604</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001573</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
@@ -6701,49 +6701,49 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1390.197710791128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2368.748013620957</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N32" t="n">
-        <v>3196.009277420603</v>
+        <v>3297.750360443162</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750058</v>
+        <v>3800.722831322499</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R32" t="n">
         <v>4778.05172241972</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946814</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331035</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604872</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261301</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991187</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730107</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6780,7 +6780,7 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
         <v>794.2006632320243</v>
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>788.5151678215053</v>
+        <v>788.5151678215061</v>
       </c>
       <c r="C34" t="n">
-        <v>667.0286178416717</v>
+        <v>667.0286178416725</v>
       </c>
       <c r="D34" t="n">
-        <v>564.3616113774093</v>
+        <v>564.3616113774101</v>
       </c>
       <c r="E34" t="n">
         <v>463.8981507430895</v>
@@ -6892,7 +6892,7 @@
         <v>1725.799256195774</v>
       </c>
       <c r="V34" t="n">
-        <v>1518.56440093796</v>
+        <v>1518.564400937961</v>
       </c>
       <c r="W34" t="n">
         <v>1276.596863849073</v>
@@ -6901,7 +6901,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y34" t="n">
-        <v>922.7139997036718</v>
+        <v>922.7139997036725</v>
       </c>
     </row>
     <row r="35">
@@ -6914,19 +6914,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
@@ -6935,25 +6935,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>407.2827125145384</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>741.1020862043849</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L35" t="n">
-        <v>1605.62090185774</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M35" t="n">
-        <v>2584.171204687568</v>
+        <v>1770.231306037953</v>
       </c>
       <c r="N35" t="n">
-        <v>3130.950021746351</v>
+        <v>2749.9835782646</v>
       </c>
       <c r="O35" t="n">
-        <v>4010.914672075805</v>
+        <v>3629.948228594054</v>
       </c>
       <c r="P35" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
         <v>4653.975400188666</v>
@@ -6990,37 +6990,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K36" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7056,10 +7056,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7081,7 +7081,7 @@
         <v>463.8981507430896</v>
       </c>
       <c r="F37" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932525</v>
       </c>
       <c r="G37" t="n">
         <v>244.2046325160447</v>
@@ -7093,13 +7093,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>187.1890521477366</v>
+        <v>187.1890521477364</v>
       </c>
       <c r="K37" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490195</v>
       </c>
       <c r="L37" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M37" t="n">
         <v>1191.409234901878</v>
@@ -7114,7 +7114,7 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q37" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R37" t="n">
         <v>2286.005723829558</v>
@@ -7172,28 +7172,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K38" t="n">
-        <v>785.6651881176194</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L38" t="n">
-        <v>1236.699401366028</v>
+        <v>1453.840519464784</v>
       </c>
       <c r="M38" t="n">
-        <v>2215.249704195857</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N38" t="n">
-        <v>2985.817436667298</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O38" t="n">
-        <v>3865.782086996753</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7202,16 +7202,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
         <v>3150.95552873011</v>
@@ -7227,37 +7227,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089893</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7293,10 +7293,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215052</v>
+        <v>788.515167821505</v>
       </c>
       <c r="C40" t="n">
-        <v>667.0286178416716</v>
+        <v>667.0286178416713</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774093</v>
+        <v>564.361611377409</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430895</v>
+        <v>463.8981507430892</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932522</v>
       </c>
       <c r="G40" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160445</v>
       </c>
       <c r="H40" t="n">
         <v>145.4370786819758</v>
@@ -7330,13 +7330,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
-        <v>187.1890521477367</v>
+        <v>187.1890521477366</v>
       </c>
       <c r="K40" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L40" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M40" t="n">
         <v>1191.409234901878</v>
@@ -7345,13 +7345,13 @@
         <v>1579.322996860149</v>
       </c>
       <c r="O40" t="n">
-        <v>1925.15798103297</v>
+        <v>1925.157981032969</v>
       </c>
       <c r="P40" t="n">
-        <v>2204.270866719036</v>
+        <v>2204.270866719035</v>
       </c>
       <c r="Q40" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R40" t="n">
         <v>2286.005723829558</v>
@@ -7369,13 +7369,13 @@
         <v>1518.56440093796</v>
       </c>
       <c r="W40" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X40" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.7139997036718</v>
+        <v>922.7139997036713</v>
       </c>
     </row>
     <row r="41">
@@ -7388,19 +7388,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7412,16 +7412,16 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>901.0652231938166</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1352.099436442225</v>
+        <v>1741.136558882383</v>
       </c>
       <c r="M41" t="n">
-        <v>2330.649739272054</v>
+        <v>2274.668463554307</v>
       </c>
       <c r="N41" t="n">
-        <v>2877.428556330836</v>
+        <v>3254.420735780954</v>
       </c>
       <c r="O41" t="n">
         <v>3757.393206660291</v>
@@ -7448,7 +7448,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
         <v>3150.95552873011</v>
@@ -7464,19 +7464,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G42" t="n">
         <v>205.0702204089889</v>
@@ -7488,13 +7488,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K42" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7509,7 +7509,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R42" t="n">
         <v>2593.958107142068</v>
@@ -7518,7 +7518,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U42" t="n">
         <v>2043.809373447819</v>
@@ -7527,7 +7527,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W42" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X42" t="n">
         <v>1346.568408282342</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215053</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C43" t="n">
-        <v>667.0286178416717</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774093</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430895</v>
+        <v>463.8981507430894</v>
       </c>
       <c r="F43" t="n">
         <v>364.4578361932524</v>
@@ -7573,13 +7573,13 @@
         <v>437.6816203490196</v>
       </c>
       <c r="L43" t="n">
-        <v>800.7468040499224</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M43" t="n">
         <v>1191.409234901878</v>
       </c>
       <c r="N43" t="n">
-        <v>1579.322996860149</v>
+        <v>1579.32299686015</v>
       </c>
       <c r="O43" t="n">
         <v>1925.157981032969</v>
@@ -7588,7 +7588,7 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q43" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R43" t="n">
         <v>2286.005723829558</v>
@@ -7606,13 +7606,13 @@
         <v>1518.56440093796</v>
       </c>
       <c r="W43" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X43" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.7139997036718</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
     <row r="44">
@@ -7649,25 +7649,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L44" t="n">
-        <v>1069.293752345675</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M44" t="n">
-        <v>1897.67628410419</v>
+        <v>2373.979363934262</v>
       </c>
       <c r="N44" t="n">
-        <v>2877.428556330836</v>
+        <v>2920.758180993045</v>
       </c>
       <c r="O44" t="n">
-        <v>3757.393206660291</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8067,13 +8067,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9238900028826</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8298,13 +8298,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8547,7 +8547,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992665</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8687,13 +8687,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>64.28566532692543</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
@@ -8705,10 +8705,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>11.64153443578934</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8927,28 +8927,28 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>229.1155640189919</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>192.9047586887105</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,28 +9161,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>358.2849913921049</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>173.2204606877393</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9398,31 +9398,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>77.35795430876988</v>
+        <v>420.283396840471</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9641,22 +9641,22 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>163.3991441460108</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>341.5962138876753</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>76.45227440777342</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>285.6623071682317</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,19 +10109,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>96.13798426930737</v>
       </c>
       <c r="N29" t="n">
-        <v>79.70465870845339</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10130,10 +10130,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10349,28 +10349,28 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>283.315602768549</v>
+        <v>292.5685715191211</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,28 +10583,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>124.0833809162814</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>172.4995987156013</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10826,25 +10826,25 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>219.3344627260167</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>226.0494095077361</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11060,19 +11060,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>116.5656919961588</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>185.3870697685873</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11297,28 +11297,28 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>297.8289162490807</v>
+        <v>37.13651117804432</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22550,19 +22550,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>126.5420261622705</v>
+        <v>378.674614646147</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>97.8741797343107</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>132.2758992500987</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -22711,13 +22711,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -22726,7 +22726,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22753,19 +22753,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>29.16647613456237</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>184.8873882823823</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>36.57666262214738</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23476,10 +23476,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>113.4197768217102</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>101.2504636735941</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
@@ -23671,7 +23671,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>83.13786937628275</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,16 +23710,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,13 +23896,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>52.11982129457411</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>82.55208449419925</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,22 +24124,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>123.0762367492907</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>33.4884732141587</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,16 +24364,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>134.7247446382408</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>47.29464513706804</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>92.48912964370467</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>58.41480623151587</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>-7.673861546209082e-13</v>
       </c>
       <c r="I31" t="n">
-        <v>-7.887024366937112e-13</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25081,7 +25081,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>-7.673861546209082e-13</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>-5.968558980384842e-13</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1211382.737192825</v>
+        <v>1211382.737192824</v>
       </c>
     </row>
     <row r="3">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1310496.365925757</v>
+        <v>1310496.365925756</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1310496.365925756</v>
+        <v>1310496.365925757</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1310496.365925757</v>
+        <v>1310496.365925756</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>129677.0210573685</v>
+        <v>129677.0210573684</v>
       </c>
       <c r="C2" t="n">
         <v>143682.3097262497</v>
@@ -26326,10 +26326,10 @@
         <v>138978.6254104441</v>
       </c>
       <c r="G2" t="n">
+        <v>138978.6254104442</v>
+      </c>
+      <c r="H2" t="n">
         <v>138978.6254104441</v>
-      </c>
-      <c r="H2" t="n">
-        <v>138978.6254104442</v>
       </c>
       <c r="I2" t="n">
         <v>138978.6254104441</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,7 +26390,7 @@
         <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>37580.10929487404</v>
+        <v>37580.10929487406</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>37580.10929487405</v>
+        <v>37580.10929487406</v>
       </c>
     </row>
     <row r="4">
@@ -26415,28 +26415,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>137670.0716798393</v>
+        <v>137670.0716798392</v>
       </c>
       <c r="C4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="E4" t="n">
-        <v>18148.49231918995</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="F4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918989</v>
       </c>
       <c r="G4" t="n">
-        <v>18148.49231918992</v>
+        <v>18148.49231918991</v>
       </c>
       <c r="H4" t="n">
         <v>18148.49231918993</v>
       </c>
       <c r="I4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="J4" t="n">
         <v>18148.49231918994</v>
@@ -26448,13 +26448,13 @@
         <v>33605.65329740898</v>
       </c>
       <c r="M4" t="n">
-        <v>33605.65329740897</v>
+        <v>33605.65329740896</v>
       </c>
       <c r="N4" t="n">
         <v>33605.65329740896</v>
       </c>
       <c r="O4" t="n">
-        <v>33605.65329740898</v>
+        <v>33605.65329740899</v>
       </c>
       <c r="P4" t="n">
         <v>33605.65329740899</v>
@@ -26476,7 +26476,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
         <v>96383.51825371366</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-680820.0079004247</v>
+        <v>-681020.0834528372</v>
       </c>
       <c r="C6" t="n">
-        <v>-122525.4551942878</v>
+        <v>-122525.4551942877</v>
       </c>
       <c r="D6" t="n">
-        <v>-122525.4551942878</v>
+        <v>-122525.4551942877</v>
       </c>
       <c r="E6" t="n">
-        <v>-702930.799155866</v>
+        <v>-702997.9946460921</v>
       </c>
       <c r="F6" t="n">
-        <v>24446.61483754049</v>
+        <v>24379.41934731474</v>
       </c>
       <c r="G6" t="n">
-        <v>24446.61483754053</v>
+        <v>24379.4193473148</v>
       </c>
       <c r="H6" t="n">
-        <v>24446.6148375406</v>
+        <v>24379.4193473147</v>
       </c>
       <c r="I6" t="n">
-        <v>24446.6148375405</v>
+        <v>24379.4193473147</v>
       </c>
       <c r="J6" t="n">
-        <v>-151976.6043550523</v>
+        <v>-152043.7998452782</v>
       </c>
       <c r="K6" t="n">
-        <v>-27836.12388013543</v>
+        <v>-27836.12388013545</v>
       </c>
       <c r="L6" t="n">
-        <v>9743.98541473865</v>
+        <v>9743.985414738621</v>
       </c>
       <c r="M6" t="n">
-        <v>-119898.3294242063</v>
+        <v>-119898.3294242062</v>
       </c>
       <c r="N6" t="n">
-        <v>9743.985414738665</v>
+        <v>9743.985414738578</v>
       </c>
       <c r="O6" t="n">
-        <v>9743.985414738621</v>
+        <v>9743.985414738607</v>
       </c>
       <c r="P6" t="n">
-        <v>-27836.1238801354</v>
+        <v>-27836.12388013551</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26710,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>46.97513661859256</v>
+      </c>
+      <c r="L2" t="n">
+        <v>46.97513661859256</v>
+      </c>
+      <c r="M2" t="n">
+        <v>46.97513661859256</v>
+      </c>
+      <c r="N2" t="n">
+        <v>46.97513661859258</v>
+      </c>
+      <c r="O2" t="n">
         <v>46.97513661859255</v>
-      </c>
-      <c r="L2" t="n">
-        <v>46.97513661859255</v>
-      </c>
-      <c r="M2" t="n">
-        <v>46.97513661859255</v>
-      </c>
-      <c r="N2" t="n">
-        <v>46.97513661859256</v>
-      </c>
-      <c r="O2" t="n">
-        <v>46.97513661859256</v>
       </c>
       <c r="P2" t="n">
         <v>46.97513661859256</v>
@@ -26747,7 +26747,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762114</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="3">
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>255.3883439099912</v>
+        <v>3.255755426114774</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,25 +27579,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>90.78842657655917</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>353.3002705778151</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>36.1204033061335</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,7 +27831,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>150.356955594279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27859,13 +27859,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>19.36531608570658</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>248.3475241484816</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>33.37815820713561</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>91.76886668843298</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28065,7 +28065,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28093,7 +28093,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28150,7 +28150,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28254,7 +28254,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -28299,7 +28299,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-1.125499693443999e-12</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="38">
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>-7.958078640513122e-13</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="44">
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31996,40 +31996,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32148,43 +32148,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33500,10 +33500,10 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M33" t="n">
         <v>593.9283018233475</v>
@@ -33734,7 +33734,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34208,7 +34208,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,22 +35012,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,7 +35258,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
@@ -35267,7 +35267,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427824</v>
+        <v>519.8757797192576</v>
       </c>
       <c r="M11" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>262.4358392395088</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
         <v>125.3296184152072</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35580,13 +35580,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554006</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923323</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230594</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248957</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>737.1685649072112</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908547</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037196</v>
+        <v>443.69906349243</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222484</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>910.5868268050164</v>
       </c>
       <c r="O17" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>424.0147654914588</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
         <v>59.61319854222478</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>629.6597897216814</v>
+        <v>972.5852322533825</v>
       </c>
       <c r="O20" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36361,22 +36361,22 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>618.9892585383429</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>880.517329717902</v>
       </c>
       <c r="N23" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
         <v>125.3296184152072</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>267.2392753764859</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L26" t="n">
-        <v>741.2524215605639</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597718</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36765,13 +36765,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,19 +36829,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>635.0591000995341</v>
       </c>
       <c r="N29" t="n">
-        <v>632.0064941213649</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
         <v>508.0530008882191</v>
@@ -36850,10 +36850,10 @@
         <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>835.6174381814604</v>
+        <v>844.8704069320326</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,10 +37148,10 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M33" t="n">
         <v>451.7942679013292</v>
@@ -37303,28 +37303,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>314.8703818849939</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>571.2615849349731</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
@@ -37543,28 +37543,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>674.9245771183487</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N38" t="n">
-        <v>778.3512449206476</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
@@ -37707,16 +37707,16 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3693751564862</v>
@@ -37780,19 +37780,19 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>453.7569785515593</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>640.9771841609195</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
         <v>720.5606943908545</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -37947,7 +37947,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
@@ -38017,28 +38017,28 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>836.7500320793075</v>
+        <v>576.0576270082711</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
